--- a/Result.xlsx
+++ b/Result.xlsx
@@ -32,25 +32,25 @@
     <t>Boltzmann</t>
   </si>
   <si>
+    <t>Group 3</t>
+  </si>
+  <si>
     <t>Group 6</t>
   </si>
   <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>Group 3</t>
-  </si>
-  <si>
-    <t>Group 1</t>
+    <t>Group 7</t>
   </si>
   <si>
     <t>Group 5</t>
   </si>
   <si>
+    <t>Group 8</t>
+  </si>
+  <si>
     <t>Group 11</t>
   </si>
   <si>
-    <t>Group 8</t>
+    <t>Group 9</t>
   </si>
 </sst>
 </file>
